--- a/main/results/Entities_Built.xlsx
+++ b/main/results/Entities_Built.xlsx
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -547,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -563,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -587,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -595,7 +595,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -603,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -643,7 +643,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -659,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -667,7 +667,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -675,7 +675,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -683,7 +683,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -691,7 +691,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -699,7 +699,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -715,7 +715,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -811,7 +811,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -835,7 +835,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -859,7 +859,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2">
